--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/99/correct_predictions_99.xlsx
@@ -536,22 +536,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -566,42 +566,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,42 +686,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,22 +776,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -866,22 +866,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1016,52 +1016,52 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1136,42 +1136,42 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/99/correct_predictions_99.xlsx
@@ -536,22 +536,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -566,42 +566,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,42 +686,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,22 +776,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -866,22 +866,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1016,52 +1016,52 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1136,42 +1136,42 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
